--- a/RodriguesDaudt_etal_SDM_SWAO_Table_S4.xlsx
+++ b/RodriguesDaudt_etal_SDM_SWAO_Table_S4.xlsx
@@ -180,14 +180,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +472,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
       <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>3.91</v>
       </c>
       <c r="D2" s="4">
@@ -516,7 +516,7 @@
       <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>2.92</v>
       </c>
       <c r="D3" s="4">
@@ -530,7 +530,7 @@
       <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>3.7</v>
       </c>
       <c r="D4" s="4">
@@ -544,7 +544,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>5.25</v>
       </c>
       <c r="D5" s="4">
@@ -558,7 +558,7 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>3.4</v>
       </c>
       <c r="D6" s="4">
@@ -572,7 +572,7 @@
       <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>3.1</v>
       </c>
       <c r="D7" s="4">
@@ -586,7 +586,7 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>2.84</v>
       </c>
       <c r="D8" s="4">
@@ -600,7 +600,7 @@
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>2.67</v>
       </c>
       <c r="D9" s="4">
@@ -614,7 +614,7 @@
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>3.91</v>
       </c>
       <c r="D10" s="4">
@@ -628,7 +628,7 @@
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>2.48</v>
       </c>
       <c r="D11" s="5">
@@ -636,12 +636,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
